--- a/crawling/남성사계시장/남성사계시장.xlsx
+++ b/crawling/남성사계시장/남성사계시장.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soongsilac-my.sharepoint.com/personal/jykim20180731_soongsil_ac_kr/Documents/바탕 화면/tlwkd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\Documents\GitHub\205_Web_Sijangtong\crawling\남성사계시장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D713E6-A8FF-4FC7-BF6C-37814C0ED280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47F254-80EE-46DC-9A6B-B261FF95FC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25B70E96-4185-429D-ABA9-E02A53C5390F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{25B70E96-4185-429D-ABA9-E02A53C5390F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,79 +54,81 @@
     <t>[동작구 배달] 순살사각어묵 900g [남성사계 부산어묵장돌이]</t>
   </si>
   <si>
+    <t>[동작구 배달] 핫바 1개 [남성사계 오향한방족발개성]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 순살봉어묵 500g [남성사계 부산어묵장돌이]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 숯불반반바베큐 1마리 [남성사계 숯불닭바베큐]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 채끝등심 400g [남성사계 부흥축산]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 치마살 400g [남성사계 부흥축산]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 숯불소금바베큐 1마리 [남성사계 숯불닭바베큐]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 달콤하고 맛좋은 배 1.8kg [남성사계 해돋이청과]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 맛난 새콤달콤 귤 1.6kg [남성사계 해돋이청과]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 홍어회무침 1kg [남성사계 이수홍어]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 가래떡 300g [남성사계 소담떡집]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 육사시미 400g [남성사계 부흥축산]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 국산 참기름 350ml [남성사계 남성고추방앗간]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 망고포도 샤인머스켓 800g [남성사계 진그늘청과]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 미니족발 1팩 [남성사계 명성왕족발]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 절편 240g [남성사계 소담떡집]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 수입산 참기름 350ml [남성사계 남성고추방앗간]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 살이 꽉찬 간장게장 1.5kg [남성사계 김치백화점]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 닭발 1팩 [남성사계 오향한방족발개성]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 맛난 꽈리고추 중멸치볶음 90g [남성사계 전주반찬]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 든든한 반찬 코다리조림 1.2kg [남성사계 김치백화점]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 살이 꽉찬 양념게장 400g [남성사계 김치백화점]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 즉석돌김 30g [남성사계 삼정유통]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 흰살생선대봉어묵 950g [남성사계 부산어묵장돌이]</t>
+  </si>
+  <si>
+    <t>[동작구 배달] 편육 400g [남성사계 뚱땡이족발]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[동작구 배달] 입맛되찾는 홍어무침 1kg [남성사계 김치백화점]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 핫바 1개 [남성사계 오향한방족발개성]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 순살봉어묵 500g [남성사계 부산어묵장돌이]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 숯불반반바베큐 1마리 [남성사계 숯불닭바베큐]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 채끝등심 400g [남성사계 부흥축산]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 치마살 400g [남성사계 부흥축산]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 숯불소금바베큐 1마리 [남성사계 숯불닭바베큐]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 달콤하고 맛좋은 배 1.8kg [남성사계 해돋이청과]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 편육 400g [남성사계 뚱땡이족발]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 맛난 새콤달콤 귤 1.6kg [남성사계 해돋이청과]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 홍어회무침 1kg [남성사계 이수홍어]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 가래떡 300g [남성사계 소담떡집]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 육사시미 400g [남성사계 부흥축산]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 국산 참기름 350ml [남성사계 남성고추방앗간]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 망고포도 샤인머스켓 800g [남성사계 진그늘청과]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 미니족발 1팩 [남성사계 명성왕족발]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 절편 240g [남성사계 소담떡집]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 수입산 참기름 350ml [남성사계 남성고추방앗간]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 살이 꽉찬 간장게장 1.5kg [남성사계 김치백화점]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 닭발 1팩 [남성사계 오향한방족발개성]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 맛난 꽈리고추 중멸치볶음 90g [남성사계 전주반찬]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 든든한 반찬 코다리조림 1.2kg [남성사계 김치백화점]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 살이 꽉찬 양념게장 400g [남성사계 김치백화점]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 즉석돌김 30g [남성사계 삼정유통]</t>
-  </si>
-  <si>
-    <t>[동작구 배달] 흰살생선대봉어묵 950g [남성사계 부산어묵장돌이]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,21 +529,21 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="56.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -553,7 +554,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>12</v>
       </c>
@@ -564,7 +565,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>13</v>
       </c>
@@ -575,7 +576,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>14</v>
       </c>
@@ -586,7 +587,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>15</v>
       </c>
@@ -597,276 +598,276 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>27700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
         <v>11200</v>
